--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA practice\ques\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA practice\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE306C0F-5BA8-487F-822F-19F2D19DEFE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2784E447-77F6-4FD5-92F7-FC81A6943CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15930" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1875,17 +1875,17 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="123" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2681,8 +2681,8 @@
       <c r="C63" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>4</v>
+      <c r="D63" s="11" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="21">

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA practice\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2784E447-77F6-4FD5-92F7-FC81A6943CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C2CE6E-0C98-4822-A9C7-65FA59F99BD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1874,18 +1874,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="123" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2671,14 +2671,14 @@
         <v>466</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="21">
+    <row r="63" spans="1:4" ht="19.5">
       <c r="A63">
         <v>54</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="10" t="s">
         <v>61</v>
       </c>
       <c r="D63" s="11" t="s">
@@ -2709,8 +2709,8 @@
       <c r="C65" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>4</v>
+      <c r="D65" s="11" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="21">
